--- a/EG40監視盤_保守機能・画面一覧.xlsx
+++ b/EG40監視盤_保守機能・画面一覧.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214DA585-4ABC-4737-B4BF-15AD7CA95053}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="764" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="764" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="機能一覧(統監)" sheetId="10" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="優先度">"$#REF!.$F$7:$F$19"</definedName>
     <definedName name="機能分類">"$#REF!.$F$30:$F$46"</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,12 +41,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C381" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C381" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2454" uniqueCount="1224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2458" uniqueCount="1228">
   <si>
     <t>保守画面</t>
     <rPh sb="0" eb="2">
@@ -7732,11 +7731,23 @@
   <si>
     <t>Screen Operation (Output)</t>
   </si>
+  <si>
+    <t>* 1: Refer to "Automatic ticket gate (EG20 series) integrated monitoring board functional specifications Attachment 9 Display during high-load processing"</t>
+  </si>
+  <si>
+    <t>* 2: See "Attachment 1. Message Box List"</t>
+  </si>
+  <si>
+    <t>* 1: See "Attachment 1. Message Box List"</t>
+  </si>
+  <si>
+    <t>* 2: Folder selection screen (see Chapter 5.3 Common screen)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="36">
     <font>
       <sz val="11"/>
@@ -8664,7 +8675,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="326">
+  <cellXfs count="327">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -9471,21 +9482,42 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
@@ -9495,15 +9527,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -9525,15 +9548,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -9547,54 +9561,54 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
-    <cellStyle name="20% - アクセント 1 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - アクセント 2 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - アクセント 3 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - アクセント 4 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - アクセント 5 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - アクセント 6 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="40% - アクセント 1 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="40% - アクセント 2 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="40% - アクセント 3 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="40% - アクセント 4 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="40% - アクセント 5 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="40% - アクセント 6 2" xfId="41" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="60% - アクセント 1 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="60% - アクセント 2 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="60% - アクセント 3 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="60% - アクセント 4 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="60% - アクセント 5 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="60% - アクセント 6 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="20% - アクセント 1 2" xfId="20"/>
+    <cellStyle name="20% - アクセント 2 2" xfId="24"/>
+    <cellStyle name="20% - アクセント 3 2" xfId="28"/>
+    <cellStyle name="20% - アクセント 4 2" xfId="32"/>
+    <cellStyle name="20% - アクセント 5 2" xfId="36"/>
+    <cellStyle name="20% - アクセント 6 2" xfId="40"/>
+    <cellStyle name="40% - アクセント 1 2" xfId="21"/>
+    <cellStyle name="40% - アクセント 2 2" xfId="25"/>
+    <cellStyle name="40% - アクセント 3 2" xfId="29"/>
+    <cellStyle name="40% - アクセント 4 2" xfId="33"/>
+    <cellStyle name="40% - アクセント 5 2" xfId="37"/>
+    <cellStyle name="40% - アクセント 6 2" xfId="41"/>
+    <cellStyle name="60% - アクセント 1 2" xfId="22"/>
+    <cellStyle name="60% - アクセント 2 2" xfId="26"/>
+    <cellStyle name="60% - アクセント 3 2" xfId="30"/>
+    <cellStyle name="60% - アクセント 4 2" xfId="34"/>
+    <cellStyle name="60% - アクセント 5 2" xfId="38"/>
+    <cellStyle name="60% - アクセント 6 2" xfId="42"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Normal 2" xfId="43"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="アクセント 1 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="アクセント 2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="アクセント 3 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="アクセント 4 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="アクセント 5 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="アクセント 6 2" xfId="39" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="チェック セル 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="どちらでもない 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="メモ 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="リンク セル 2" xfId="13" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="入力 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="出力 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="悪い 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="標準 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="良い 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="見出し 1 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="見出し 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="見出し 3 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="見出し 4 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="計算 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="説明文 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="警告文 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="集計 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="アクセント 1 2" xfId="19"/>
+    <cellStyle name="アクセント 2 2" xfId="23"/>
+    <cellStyle name="アクセント 3 2" xfId="27"/>
+    <cellStyle name="アクセント 4 2" xfId="31"/>
+    <cellStyle name="アクセント 5 2" xfId="35"/>
+    <cellStyle name="アクセント 6 2" xfId="39"/>
+    <cellStyle name="チェック セル 2" xfId="14"/>
+    <cellStyle name="どちらでもない 2" xfId="9"/>
+    <cellStyle name="メモ 2" xfId="16"/>
+    <cellStyle name="リンク セル 2" xfId="13"/>
+    <cellStyle name="入力 2" xfId="10"/>
+    <cellStyle name="出力 2" xfId="11"/>
+    <cellStyle name="悪い 2" xfId="8"/>
+    <cellStyle name="標準 2" xfId="2"/>
+    <cellStyle name="良い 2" xfId="7"/>
+    <cellStyle name="見出し 1 2" xfId="3"/>
+    <cellStyle name="見出し 2 2" xfId="4"/>
+    <cellStyle name="見出し 3 2" xfId="5"/>
+    <cellStyle name="見出し 4 2" xfId="6"/>
+    <cellStyle name="計算 2" xfId="12"/>
+    <cellStyle name="説明文 2" xfId="17"/>
+    <cellStyle name="警告文 2" xfId="15"/>
+    <cellStyle name="集計 2" xfId="18"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -12097,6 +12111,82 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>315030</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>162479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1362075" y="14097000"/>
+          <a:ext cx="5048955" cy="3972479"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>67162</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>10063</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8162925" y="14058900"/>
+          <a:ext cx="3486637" cy="3858163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12362,7 +12452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -12627,7 +12717,7 @@
       <c r="A12" s="30"/>
       <c r="B12" s="42"/>
       <c r="C12" s="57"/>
-      <c r="D12" s="318" t="s">
+      <c r="D12" s="301" t="s">
         <v>326</v>
       </c>
       <c r="E12" s="58" t="s">
@@ -12636,7 +12726,7 @@
       <c r="F12" s="58"/>
       <c r="G12" s="58"/>
       <c r="H12" s="44"/>
-      <c r="I12" s="308" t="s">
+      <c r="I12" s="304" t="s">
         <v>344</v>
       </c>
       <c r="J12" s="45"/>
@@ -12647,14 +12737,14 @@
       <c r="A13" s="30"/>
       <c r="B13" s="42"/>
       <c r="C13" s="57"/>
-      <c r="D13" s="319"/>
+      <c r="D13" s="302"/>
       <c r="E13" s="58" t="s">
         <v>331</v>
       </c>
       <c r="F13" s="58"/>
       <c r="G13" s="59"/>
       <c r="H13" s="60"/>
-      <c r="I13" s="309"/>
+      <c r="I13" s="305"/>
       <c r="J13" s="45"/>
       <c r="K13" s="46"/>
       <c r="L13" s="46"/>
@@ -12663,14 +12753,14 @@
       <c r="A14" s="30"/>
       <c r="B14" s="42"/>
       <c r="C14" s="57"/>
-      <c r="D14" s="320"/>
+      <c r="D14" s="303"/>
       <c r="E14" s="58" t="s">
         <v>345</v>
       </c>
       <c r="F14" s="58"/>
       <c r="G14" s="59"/>
       <c r="H14" s="60"/>
-      <c r="I14" s="310"/>
+      <c r="I14" s="306"/>
       <c r="J14" s="45"/>
       <c r="K14" s="46"/>
       <c r="L14" s="46"/>
@@ -12846,7 +12936,7 @@
       <c r="A24" s="30"/>
       <c r="B24" s="42"/>
       <c r="C24" s="57"/>
-      <c r="D24" s="300" t="s">
+      <c r="D24" s="307" t="s">
         <v>346</v>
       </c>
       <c r="E24" s="58" t="s">
@@ -12855,7 +12945,7 @@
       <c r="F24" s="58"/>
       <c r="G24" s="58"/>
       <c r="H24" s="44"/>
-      <c r="I24" s="308" t="s">
+      <c r="I24" s="304" t="s">
         <v>347</v>
       </c>
       <c r="J24" s="45"/>
@@ -12869,14 +12959,14 @@
       <c r="A25" s="30"/>
       <c r="B25" s="42"/>
       <c r="C25" s="57"/>
-      <c r="D25" s="303"/>
+      <c r="D25" s="308"/>
       <c r="E25" s="58" t="s">
         <v>331</v>
       </c>
       <c r="F25" s="58"/>
       <c r="G25" s="59"/>
       <c r="H25" s="60"/>
-      <c r="I25" s="309"/>
+      <c r="I25" s="305"/>
       <c r="J25" s="45"/>
       <c r="K25" s="46"/>
       <c r="L25" s="46"/>
@@ -12885,14 +12975,14 @@
       <c r="A26" s="30"/>
       <c r="B26" s="42"/>
       <c r="C26" s="57"/>
-      <c r="D26" s="304"/>
+      <c r="D26" s="309"/>
       <c r="E26" s="58" t="s">
         <v>345</v>
       </c>
       <c r="F26" s="58"/>
       <c r="G26" s="59"/>
       <c r="H26" s="60"/>
-      <c r="I26" s="310"/>
+      <c r="I26" s="306"/>
       <c r="J26" s="45"/>
       <c r="K26" s="46"/>
       <c r="L26" s="46"/>
@@ -13051,7 +13141,7 @@
       <c r="A35" s="30"/>
       <c r="B35" s="42"/>
       <c r="C35" s="57"/>
-      <c r="D35" s="300" t="s">
+      <c r="D35" s="307" t="s">
         <v>352</v>
       </c>
       <c r="E35" s="58" t="s">
@@ -13060,7 +13150,7 @@
       <c r="F35" s="58"/>
       <c r="G35" s="58"/>
       <c r="H35" s="44"/>
-      <c r="I35" s="308" t="s">
+      <c r="I35" s="304" t="s">
         <v>353</v>
       </c>
       <c r="J35" s="45"/>
@@ -13071,14 +13161,14 @@
       <c r="A36" s="30"/>
       <c r="B36" s="42"/>
       <c r="C36" s="57"/>
-      <c r="D36" s="303"/>
+      <c r="D36" s="308"/>
       <c r="E36" s="58" t="s">
         <v>331</v>
       </c>
       <c r="F36" s="58"/>
       <c r="G36" s="59"/>
       <c r="H36" s="60"/>
-      <c r="I36" s="309"/>
+      <c r="I36" s="305"/>
       <c r="J36" s="45"/>
       <c r="K36" s="46"/>
       <c r="L36" s="46"/>
@@ -13087,14 +13177,14 @@
       <c r="A37" s="30"/>
       <c r="B37" s="42"/>
       <c r="C37" s="57"/>
-      <c r="D37" s="304"/>
+      <c r="D37" s="309"/>
       <c r="E37" s="58" t="s">
         <v>345</v>
       </c>
       <c r="F37" s="58"/>
       <c r="G37" s="59"/>
       <c r="H37" s="60"/>
-      <c r="I37" s="310"/>
+      <c r="I37" s="306"/>
       <c r="J37" s="45"/>
       <c r="K37" s="46"/>
       <c r="L37" s="46"/>
@@ -13258,7 +13348,7 @@
       <c r="A46" s="30"/>
       <c r="B46" s="42"/>
       <c r="C46" s="57"/>
-      <c r="D46" s="300" t="s">
+      <c r="D46" s="307" t="s">
         <v>355</v>
       </c>
       <c r="E46" s="58" t="s">
@@ -13267,7 +13357,7 @@
       <c r="F46" s="58"/>
       <c r="G46" s="58"/>
       <c r="H46" s="44"/>
-      <c r="I46" s="308" t="s">
+      <c r="I46" s="304" t="s">
         <v>356</v>
       </c>
       <c r="J46" s="45"/>
@@ -13278,14 +13368,14 @@
       <c r="A47" s="30"/>
       <c r="B47" s="42"/>
       <c r="C47" s="57"/>
-      <c r="D47" s="303"/>
+      <c r="D47" s="308"/>
       <c r="E47" s="58" t="s">
         <v>331</v>
       </c>
       <c r="F47" s="58"/>
       <c r="G47" s="59"/>
       <c r="H47" s="60"/>
-      <c r="I47" s="309"/>
+      <c r="I47" s="305"/>
       <c r="J47" s="45"/>
       <c r="K47" s="46"/>
       <c r="L47" s="46"/>
@@ -13294,14 +13384,14 @@
       <c r="A48" s="30"/>
       <c r="B48" s="42"/>
       <c r="C48" s="57"/>
-      <c r="D48" s="304"/>
+      <c r="D48" s="309"/>
       <c r="E48" s="58" t="s">
         <v>345</v>
       </c>
       <c r="F48" s="58"/>
       <c r="G48" s="59"/>
       <c r="H48" s="60"/>
-      <c r="I48" s="310"/>
+      <c r="I48" s="306"/>
       <c r="J48" s="45"/>
       <c r="K48" s="46"/>
       <c r="L48" s="46"/>
@@ -13818,7 +13908,7 @@
       <c r="A76" s="30"/>
       <c r="B76" s="42"/>
       <c r="C76" s="57"/>
-      <c r="D76" s="300" t="s">
+      <c r="D76" s="307" t="s">
         <v>355</v>
       </c>
       <c r="E76" s="58" t="s">
@@ -13827,7 +13917,7 @@
       <c r="F76" s="58"/>
       <c r="G76" s="58"/>
       <c r="H76" s="77"/>
-      <c r="I76" s="300" t="s">
+      <c r="I76" s="307" t="s">
         <v>380</v>
       </c>
       <c r="J76" s="45"/>
@@ -13838,14 +13928,14 @@
       <c r="A77" s="30"/>
       <c r="B77" s="42"/>
       <c r="C77" s="57"/>
-      <c r="D77" s="303"/>
+      <c r="D77" s="308"/>
       <c r="E77" s="58" t="s">
         <v>331</v>
       </c>
       <c r="F77" s="58"/>
       <c r="G77" s="59"/>
       <c r="H77" s="79"/>
-      <c r="I77" s="303"/>
+      <c r="I77" s="308"/>
       <c r="J77" s="45"/>
       <c r="K77" s="46"/>
       <c r="L77" s="46"/>
@@ -13854,14 +13944,14 @@
       <c r="A78" s="30"/>
       <c r="B78" s="42"/>
       <c r="C78" s="57"/>
-      <c r="D78" s="304"/>
+      <c r="D78" s="309"/>
       <c r="E78" s="58" t="s">
         <v>345</v>
       </c>
       <c r="F78" s="58"/>
       <c r="G78" s="59"/>
       <c r="H78" s="79"/>
-      <c r="I78" s="304"/>
+      <c r="I78" s="309"/>
       <c r="J78" s="45"/>
       <c r="K78" s="46"/>
       <c r="L78" s="46"/>
@@ -14416,7 +14506,7 @@
       <c r="A110" s="30"/>
       <c r="B110" s="42"/>
       <c r="C110" s="57"/>
-      <c r="D110" s="300" t="s">
+      <c r="D110" s="307" t="s">
         <v>402</v>
       </c>
       <c r="E110" s="58" t="s">
@@ -14425,7 +14515,7 @@
       <c r="F110" s="58"/>
       <c r="G110" s="58"/>
       <c r="H110" s="77"/>
-      <c r="I110" s="300" t="s">
+      <c r="I110" s="307" t="s">
         <v>403</v>
       </c>
       <c r="J110" s="45"/>
@@ -14436,14 +14526,14 @@
       <c r="A111" s="30"/>
       <c r="B111" s="42"/>
       <c r="C111" s="57"/>
-      <c r="D111" s="301"/>
+      <c r="D111" s="310"/>
       <c r="E111" s="58" t="s">
         <v>331</v>
       </c>
       <c r="F111" s="58"/>
       <c r="G111" s="59"/>
       <c r="H111" s="79"/>
-      <c r="I111" s="303"/>
+      <c r="I111" s="308"/>
       <c r="J111" s="45"/>
       <c r="K111" s="46"/>
       <c r="L111" s="46"/>
@@ -14452,14 +14542,14 @@
       <c r="A112" s="30"/>
       <c r="B112" s="42"/>
       <c r="C112" s="57"/>
-      <c r="D112" s="302"/>
+      <c r="D112" s="311"/>
       <c r="E112" s="58" t="s">
         <v>345</v>
       </c>
       <c r="F112" s="58"/>
       <c r="G112" s="59"/>
       <c r="H112" s="79"/>
-      <c r="I112" s="304"/>
+      <c r="I112" s="309"/>
       <c r="J112" s="45"/>
       <c r="K112" s="46"/>
       <c r="L112" s="46"/>
@@ -14634,7 +14724,7 @@
       <c r="A122" s="30"/>
       <c r="B122" s="42"/>
       <c r="C122" s="57"/>
-      <c r="D122" s="300" t="s">
+      <c r="D122" s="307" t="s">
         <v>355</v>
       </c>
       <c r="E122" s="58" t="s">
@@ -14643,7 +14733,7 @@
       <c r="F122" s="58"/>
       <c r="G122" s="58"/>
       <c r="H122" s="77"/>
-      <c r="I122" s="300" t="s">
+      <c r="I122" s="307" t="s">
         <v>409</v>
       </c>
       <c r="J122" s="45"/>
@@ -14654,14 +14744,14 @@
       <c r="A123" s="30"/>
       <c r="B123" s="42"/>
       <c r="C123" s="57"/>
-      <c r="D123" s="301"/>
+      <c r="D123" s="310"/>
       <c r="E123" s="58" t="s">
         <v>331</v>
       </c>
       <c r="F123" s="58"/>
       <c r="G123" s="59"/>
       <c r="H123" s="79"/>
-      <c r="I123" s="303"/>
+      <c r="I123" s="308"/>
       <c r="J123" s="45"/>
       <c r="K123" s="46"/>
       <c r="L123" s="46"/>
@@ -14670,14 +14760,14 @@
       <c r="A124" s="30"/>
       <c r="B124" s="42"/>
       <c r="C124" s="57"/>
-      <c r="D124" s="302"/>
+      <c r="D124" s="311"/>
       <c r="E124" s="58" t="s">
         <v>345</v>
       </c>
       <c r="F124" s="58"/>
       <c r="G124" s="59"/>
       <c r="H124" s="79"/>
-      <c r="I124" s="304"/>
+      <c r="I124" s="309"/>
       <c r="J124" s="45"/>
       <c r="K124" s="46"/>
       <c r="L124" s="46"/>
@@ -15382,11 +15472,11 @@
       <c r="D162" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="E162" s="305" t="s">
+      <c r="E162" s="312" t="s">
         <v>429</v>
       </c>
-      <c r="F162" s="306"/>
-      <c r="G162" s="307"/>
+      <c r="F162" s="313"/>
+      <c r="G162" s="314"/>
       <c r="H162" s="44"/>
       <c r="I162" s="45" t="s">
         <v>428</v>
@@ -18896,7 +18986,7 @@
       </c>
       <c r="G337" s="48"/>
       <c r="H337" s="44"/>
-      <c r="I337" s="308" t="s">
+      <c r="I337" s="304" t="s">
         <v>552</v>
       </c>
       <c r="J337" s="45"/>
@@ -18913,7 +19003,7 @@
       </c>
       <c r="G338" s="48"/>
       <c r="H338" s="44"/>
-      <c r="I338" s="309"/>
+      <c r="I338" s="305"/>
       <c r="J338" s="45"/>
       <c r="K338" s="46"/>
       <c r="L338" s="46"/>
@@ -18928,7 +19018,7 @@
       </c>
       <c r="G339" s="48"/>
       <c r="H339" s="44"/>
-      <c r="I339" s="309"/>
+      <c r="I339" s="305"/>
       <c r="J339" s="45"/>
       <c r="K339" s="46"/>
       <c r="L339" s="46"/>
@@ -18943,7 +19033,7 @@
       </c>
       <c r="G340" s="48"/>
       <c r="H340" s="44"/>
-      <c r="I340" s="310"/>
+      <c r="I340" s="306"/>
       <c r="J340" s="45"/>
       <c r="K340" s="46"/>
       <c r="L340" s="46"/>
@@ -18969,11 +19059,11 @@
       <c r="B342" s="108"/>
       <c r="C342" s="57"/>
       <c r="D342" s="57"/>
-      <c r="E342" s="311" t="s">
+      <c r="E342" s="315" t="s">
         <v>545</v>
       </c>
-      <c r="F342" s="312"/>
-      <c r="G342" s="313"/>
+      <c r="F342" s="316"/>
+      <c r="G342" s="317"/>
       <c r="H342" s="44"/>
       <c r="I342" s="45" t="s">
         <v>546</v>
@@ -19028,7 +19118,7 @@
       </c>
       <c r="G345" s="48"/>
       <c r="H345" s="44"/>
-      <c r="I345" s="308" t="s">
+      <c r="I345" s="304" t="s">
         <v>553</v>
       </c>
       <c r="J345" s="45"/>
@@ -19045,7 +19135,7 @@
       </c>
       <c r="G346" s="48"/>
       <c r="H346" s="44"/>
-      <c r="I346" s="309"/>
+      <c r="I346" s="305"/>
       <c r="J346" s="45"/>
       <c r="K346" s="46"/>
       <c r="L346" s="46"/>
@@ -19060,7 +19150,7 @@
       </c>
       <c r="G347" s="48"/>
       <c r="H347" s="44"/>
-      <c r="I347" s="310"/>
+      <c r="I347" s="306"/>
       <c r="J347" s="45"/>
       <c r="K347" s="46"/>
       <c r="L347" s="46"/>
@@ -19086,11 +19176,11 @@
       <c r="B349" s="108"/>
       <c r="C349" s="57"/>
       <c r="D349" s="57"/>
-      <c r="E349" s="311" t="s">
+      <c r="E349" s="315" t="s">
         <v>549</v>
       </c>
-      <c r="F349" s="312"/>
-      <c r="G349" s="313"/>
+      <c r="F349" s="316"/>
+      <c r="G349" s="317"/>
       <c r="H349" s="44"/>
       <c r="I349" s="45" t="s">
         <v>554</v>
@@ -19154,11 +19244,11 @@
       <c r="B353" s="108"/>
       <c r="C353" s="57"/>
       <c r="D353" s="57"/>
-      <c r="E353" s="305" t="s">
+      <c r="E353" s="312" t="s">
         <v>555</v>
       </c>
-      <c r="F353" s="314"/>
-      <c r="G353" s="315"/>
+      <c r="F353" s="318"/>
+      <c r="G353" s="319"/>
       <c r="H353" s="44"/>
       <c r="I353" s="45" t="s">
         <v>558</v>
@@ -19324,7 +19414,7 @@
       <c r="F362" s="48"/>
       <c r="G362" s="48"/>
       <c r="H362" s="44"/>
-      <c r="I362" s="308" t="s">
+      <c r="I362" s="304" t="s">
         <v>567</v>
       </c>
       <c r="J362" s="45"/>
@@ -19341,7 +19431,7 @@
       <c r="F363" s="48"/>
       <c r="G363" s="48"/>
       <c r="H363" s="44"/>
-      <c r="I363" s="309"/>
+      <c r="I363" s="305"/>
       <c r="J363" s="45"/>
       <c r="K363" s="46"/>
       <c r="L363" s="46"/>
@@ -19356,7 +19446,7 @@
       <c r="F364" s="48"/>
       <c r="G364" s="48"/>
       <c r="H364" s="44"/>
-      <c r="I364" s="310"/>
+      <c r="I364" s="306"/>
       <c r="J364" s="45"/>
       <c r="K364" s="46"/>
       <c r="L364" s="46"/>
@@ -20339,14 +20429,14 @@
       <c r="A414" s="30"/>
       <c r="B414" s="91"/>
       <c r="C414" s="53"/>
-      <c r="D414" s="316" t="s">
+      <c r="D414" s="320" t="s">
         <v>160</v>
       </c>
-      <c r="E414" s="305" t="s">
+      <c r="E414" s="312" t="s">
         <v>596</v>
       </c>
-      <c r="F414" s="306"/>
-      <c r="G414" s="307"/>
+      <c r="F414" s="313"/>
+      <c r="G414" s="314"/>
       <c r="H414" s="44"/>
       <c r="I414" s="45" t="s">
         <v>598</v>
@@ -20359,7 +20449,7 @@
       <c r="A415" s="30"/>
       <c r="B415" s="91"/>
       <c r="C415" s="53"/>
-      <c r="D415" s="317"/>
+      <c r="D415" s="321"/>
       <c r="E415" s="95" t="s">
         <v>597</v>
       </c>
@@ -21244,7 +21334,7 @@
       <c r="F461" s="48"/>
       <c r="G461" s="48"/>
       <c r="H461" s="44"/>
-      <c r="I461" s="308" t="s">
+      <c r="I461" s="304" t="s">
         <v>627</v>
       </c>
       <c r="J461" s="45"/>
@@ -21262,7 +21352,7 @@
       <c r="F462" s="48"/>
       <c r="G462" s="48"/>
       <c r="H462" s="44"/>
-      <c r="I462" s="309"/>
+      <c r="I462" s="305"/>
       <c r="J462" s="45"/>
       <c r="K462" s="46"/>
       <c r="L462" s="46"/>
@@ -21278,7 +21368,7 @@
       <c r="F463" s="48"/>
       <c r="G463" s="48"/>
       <c r="H463" s="44"/>
-      <c r="I463" s="309"/>
+      <c r="I463" s="305"/>
       <c r="J463" s="45"/>
       <c r="K463" s="46"/>
       <c r="L463" s="46"/>
@@ -21294,7 +21384,7 @@
       <c r="F464" s="48"/>
       <c r="G464" s="48"/>
       <c r="H464" s="44"/>
-      <c r="I464" s="309"/>
+      <c r="I464" s="305"/>
       <c r="J464" s="45"/>
       <c r="K464" s="46"/>
       <c r="L464" s="46"/>
@@ -21310,7 +21400,7 @@
       <c r="F465" s="48"/>
       <c r="G465" s="48"/>
       <c r="H465" s="44"/>
-      <c r="I465" s="309"/>
+      <c r="I465" s="305"/>
       <c r="J465" s="45"/>
       <c r="K465" s="46"/>
       <c r="L465" s="46"/>
@@ -21326,7 +21416,7 @@
       <c r="F466" s="48"/>
       <c r="G466" s="48"/>
       <c r="H466" s="44"/>
-      <c r="I466" s="309"/>
+      <c r="I466" s="305"/>
       <c r="J466" s="45"/>
       <c r="K466" s="46"/>
       <c r="L466" s="46"/>
@@ -21341,7 +21431,7 @@
       <c r="F467" s="107"/>
       <c r="G467" s="48"/>
       <c r="H467" s="44"/>
-      <c r="I467" s="310"/>
+      <c r="I467" s="306"/>
       <c r="J467" s="45"/>
       <c r="K467" s="46"/>
       <c r="L467" s="46"/>
@@ -21476,7 +21566,7 @@
       <c r="F474" s="48"/>
       <c r="G474" s="48"/>
       <c r="H474" s="44"/>
-      <c r="I474" s="308" t="s">
+      <c r="I474" s="304" t="s">
         <v>631</v>
       </c>
       <c r="J474" s="45"/>
@@ -21494,7 +21584,7 @@
       <c r="F475" s="48"/>
       <c r="G475" s="48"/>
       <c r="H475" s="44"/>
-      <c r="I475" s="309"/>
+      <c r="I475" s="305"/>
       <c r="J475" s="45"/>
       <c r="K475" s="46"/>
       <c r="L475" s="46"/>
@@ -21510,7 +21600,7 @@
       <c r="F476" s="48"/>
       <c r="G476" s="48"/>
       <c r="H476" s="44"/>
-      <c r="I476" s="309"/>
+      <c r="I476" s="305"/>
       <c r="J476" s="45"/>
       <c r="K476" s="46"/>
       <c r="L476" s="46"/>
@@ -21526,7 +21616,7 @@
       <c r="F477" s="48"/>
       <c r="G477" s="48"/>
       <c r="H477" s="44"/>
-      <c r="I477" s="309"/>
+      <c r="I477" s="305"/>
       <c r="J477" s="45"/>
       <c r="K477" s="46"/>
       <c r="L477" s="46"/>
@@ -21542,7 +21632,7 @@
       <c r="F478" s="48"/>
       <c r="G478" s="48"/>
       <c r="H478" s="44"/>
-      <c r="I478" s="309"/>
+      <c r="I478" s="305"/>
       <c r="J478" s="45"/>
       <c r="K478" s="46"/>
       <c r="L478" s="46"/>
@@ -21558,7 +21648,7 @@
       <c r="F479" s="48"/>
       <c r="G479" s="48"/>
       <c r="H479" s="44"/>
-      <c r="I479" s="309"/>
+      <c r="I479" s="305"/>
       <c r="J479" s="45"/>
       <c r="K479" s="46"/>
       <c r="L479" s="46"/>
@@ -21574,7 +21664,7 @@
       <c r="F480" s="48"/>
       <c r="G480" s="48"/>
       <c r="H480" s="44"/>
-      <c r="I480" s="309"/>
+      <c r="I480" s="305"/>
       <c r="J480" s="45"/>
       <c r="K480" s="46"/>
       <c r="L480" s="46"/>
@@ -21590,7 +21680,7 @@
       <c r="F481" s="48"/>
       <c r="G481" s="48"/>
       <c r="H481" s="44"/>
-      <c r="I481" s="310"/>
+      <c r="I481" s="306"/>
       <c r="J481" s="45"/>
       <c r="K481" s="46"/>
       <c r="L481" s="46"/>
@@ -21725,7 +21815,7 @@
       <c r="F488" s="48"/>
       <c r="G488" s="48"/>
       <c r="H488" s="44"/>
-      <c r="I488" s="308" t="s">
+      <c r="I488" s="304" t="s">
         <v>631</v>
       </c>
       <c r="J488" s="45"/>
@@ -21743,7 +21833,7 @@
       <c r="F489" s="48"/>
       <c r="G489" s="48"/>
       <c r="H489" s="44"/>
-      <c r="I489" s="309"/>
+      <c r="I489" s="305"/>
       <c r="J489" s="45"/>
       <c r="K489" s="46"/>
       <c r="L489" s="46"/>
@@ -21759,7 +21849,7 @@
       <c r="F490" s="48"/>
       <c r="G490" s="48"/>
       <c r="H490" s="44"/>
-      <c r="I490" s="309"/>
+      <c r="I490" s="305"/>
       <c r="J490" s="45"/>
       <c r="K490" s="46"/>
       <c r="L490" s="46"/>
@@ -21775,7 +21865,7 @@
       <c r="F491" s="48"/>
       <c r="G491" s="48"/>
       <c r="H491" s="44"/>
-      <c r="I491" s="309"/>
+      <c r="I491" s="305"/>
       <c r="J491" s="45"/>
       <c r="K491" s="46"/>
       <c r="L491" s="46"/>
@@ -21791,7 +21881,7 @@
       <c r="F492" s="48"/>
       <c r="G492" s="48"/>
       <c r="H492" s="44"/>
-      <c r="I492" s="310"/>
+      <c r="I492" s="306"/>
       <c r="J492" s="45"/>
       <c r="K492" s="46"/>
       <c r="L492" s="46"/>
@@ -26483,7 +26573,7 @@
       <c r="F715" s="134"/>
       <c r="G715" s="48"/>
       <c r="H715" s="44"/>
-      <c r="I715" s="308" t="s">
+      <c r="I715" s="304" t="s">
         <v>699</v>
       </c>
       <c r="J715" s="45"/>
@@ -26500,7 +26590,7 @@
       <c r="F716" s="134"/>
       <c r="G716" s="48"/>
       <c r="H716" s="44"/>
-      <c r="I716" s="309"/>
+      <c r="I716" s="305"/>
       <c r="J716" s="45"/>
       <c r="K716" s="46"/>
       <c r="L716" s="46"/>
@@ -26515,7 +26605,7 @@
       <c r="F717" s="134"/>
       <c r="G717" s="48"/>
       <c r="H717" s="44"/>
-      <c r="I717" s="309"/>
+      <c r="I717" s="305"/>
       <c r="J717" s="45"/>
       <c r="K717" s="46"/>
       <c r="L717" s="46"/>
@@ -26530,7 +26620,7 @@
       <c r="F718" s="134"/>
       <c r="G718" s="48"/>
       <c r="H718" s="44"/>
-      <c r="I718" s="310"/>
+      <c r="I718" s="306"/>
       <c r="J718" s="45"/>
       <c r="K718" s="46"/>
       <c r="L718" s="46"/>
@@ -26627,18 +26717,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="D35:D37"/>
-    <mergeCell ref="I35:I37"/>
-    <mergeCell ref="D46:D48"/>
-    <mergeCell ref="I46:I48"/>
-    <mergeCell ref="D76:D78"/>
-    <mergeCell ref="I76:I78"/>
-    <mergeCell ref="D110:D112"/>
-    <mergeCell ref="I110:I112"/>
     <mergeCell ref="D122:D124"/>
     <mergeCell ref="I122:I124"/>
     <mergeCell ref="E162:G162"/>
@@ -26654,6 +26732,18 @@
     <mergeCell ref="I461:I467"/>
     <mergeCell ref="I474:I481"/>
     <mergeCell ref="I488:I492"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="I46:I48"/>
+    <mergeCell ref="D76:D78"/>
+    <mergeCell ref="I76:I78"/>
+    <mergeCell ref="D110:D112"/>
+    <mergeCell ref="I110:I112"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="D35:D37"/>
+    <mergeCell ref="I35:I37"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26664,7 +26754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O103"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -26824,7 +26914,7 @@
       <c r="A7" s="170"/>
       <c r="B7" s="171"/>
       <c r="C7" s="57"/>
-      <c r="D7" s="300" t="s">
+      <c r="D7" s="307" t="s">
         <v>402</v>
       </c>
       <c r="E7" s="182" t="s">
@@ -26833,7 +26923,7 @@
       <c r="F7" s="182"/>
       <c r="G7" s="182"/>
       <c r="H7" s="183"/>
-      <c r="I7" s="321" t="s">
+      <c r="I7" s="322" t="s">
         <v>403</v>
       </c>
       <c r="J7" s="173"/>
@@ -26847,14 +26937,14 @@
       <c r="A8" s="170"/>
       <c r="B8" s="171"/>
       <c r="C8" s="57"/>
-      <c r="D8" s="301"/>
+      <c r="D8" s="310"/>
       <c r="E8" s="182" t="s">
         <v>331</v>
       </c>
       <c r="F8" s="182"/>
       <c r="G8" s="184"/>
       <c r="H8" s="185"/>
-      <c r="I8" s="303"/>
+      <c r="I8" s="308"/>
       <c r="J8" s="173"/>
       <c r="K8" s="174"/>
       <c r="L8" s="174"/>
@@ -26866,14 +26956,14 @@
       <c r="A9" s="170"/>
       <c r="B9" s="171"/>
       <c r="C9" s="57"/>
-      <c r="D9" s="302"/>
+      <c r="D9" s="311"/>
       <c r="E9" s="182" t="s">
         <v>345</v>
       </c>
       <c r="F9" s="182"/>
       <c r="G9" s="184"/>
       <c r="H9" s="185"/>
-      <c r="I9" s="304"/>
+      <c r="I9" s="309"/>
       <c r="J9" s="173"/>
       <c r="K9" s="174"/>
       <c r="L9" s="174"/>
@@ -27040,11 +27130,11 @@
       <c r="D17" s="183" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="322" t="s">
+      <c r="E17" s="323" t="s">
         <v>429</v>
       </c>
-      <c r="F17" s="306"/>
-      <c r="G17" s="307"/>
+      <c r="F17" s="313"/>
+      <c r="G17" s="314"/>
       <c r="H17" s="173"/>
       <c r="I17" s="178" t="s">
         <v>428</v>
@@ -28874,7 +28964,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -29189,7 +29279,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="U2:BJ143"/>
   <sheetViews>
     <sheetView topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -30699,10 +30789,10 @@
       <c r="U142" t="s">
         <v>1015</v>
       </c>
-      <c r="W142" s="323" t="s">
+      <c r="W142" s="324" t="s">
         <v>1061</v>
       </c>
-      <c r="X142" s="324"/>
+      <c r="X142" s="325"/>
     </row>
     <row r="143" spans="21:31">
       <c r="U143" t="s">
@@ -30720,7 +30810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCDDCD79-229F-4FDE-A81F-F99484D58E17}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F5:T71"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
@@ -30844,7 +30934,7 @@
       </c>
       <c r="N15" s="276"/>
       <c r="O15" s="276"/>
-      <c r="P15" s="325">
+      <c r="P15" s="300">
         <v>19</v>
       </c>
       <c r="Q15" s="276"/>
@@ -31110,7 +31200,7 @@
       </c>
       <c r="O46" s="276"/>
       <c r="P46" s="276"/>
-      <c r="Q46" s="325">
+      <c r="Q46" s="300">
         <v>19</v>
       </c>
       <c r="R46" s="276"/>
@@ -31360,11 +31450,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73885308-B24A-4148-8A9F-2024E5FC0129}">
-  <dimension ref="F4:AB73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:AB99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="G76" sqref="G76"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="R102" sqref="R102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31493,15 +31583,51 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="73" spans="6:14">
+    <row r="73" spans="6:16">
       <c r="F73" t="s">
         <v>1222</v>
       </c>
-      <c r="N73" t="s">
+      <c r="P73" t="s">
         <v>1223</v>
       </c>
     </row>
+    <row r="97" spans="3:14">
+      <c r="C97" s="326" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D97" s="326"/>
+      <c r="E97" s="326"/>
+      <c r="F97" s="326"/>
+      <c r="G97" s="326"/>
+      <c r="H97" s="326"/>
+      <c r="I97" s="326"/>
+      <c r="J97" s="326"/>
+      <c r="N97" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14">
+      <c r="C98" s="326"/>
+      <c r="D98" s="326"/>
+      <c r="E98" s="326"/>
+      <c r="F98" s="326"/>
+      <c r="G98" s="326"/>
+      <c r="H98" s="326"/>
+      <c r="I98" s="326"/>
+      <c r="J98" s="326"/>
+      <c r="N98" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14">
+      <c r="C99" t="s">
+        <v>1225</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C97:J98"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
